--- a/src/test/resources/excel/testRunner.xlsx
+++ b/src/test/resources/excel/testRunner.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SeleniumAutomationFramework\SeleniumAutomation\src\test\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FAD990-BD10-4C10-B878-EDB138F9E164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0ED929B-4420-4A68-B169-4C8B9F4F25AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{6ACAFF42-1ACE-4B25-9300-2CDEC8035B57}"/>
+    <workbookView xWindow="0" yWindow="2316" windowWidth="17280" windowHeight="8964" xr2:uid="{6ACAFF42-1ACE-4B25-9300-2CDEC8035B57}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>testName</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>alphaTest</t>
-  </si>
-  <si>
-    <t>no</t>
   </si>
 </sst>
 </file>
@@ -418,7 +415,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -448,7 +445,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="D2">
         <v>1</v>
